--- a/HumanResources.Web/wwwroot/uploads/one_emp_testing.xlsx
+++ b/HumanResources.Web/wwwroot/uploads/one_emp_testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF6E631-3E63-40DC-BCCD-026ADC609145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AB64C3-4C80-4E17-ACD5-6F9D71873F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3564D398-ED51-4AB5-8D60-2BFE198D19C1}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,7 +417,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2">
-        <v>45598.362546296295</v>
+        <v>45598.3125462963</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
